--- a/StructureDefinition-ext-R5-Device.name.xlsx
+++ b/StructureDefinition-ext-R5-Device.name.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="151">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,15 +447,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The type of name the device is referred by.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-device-nametype-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:display</t>
@@ -850,8 +841,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.30078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2290,13 +2281,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2334,13 +2325,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2365,14 +2356,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2441,7 +2432,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2544,7 +2535,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2649,7 +2640,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2692,7 +2683,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2754,7 +2745,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -2780,13 +2771,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2988,13 +2979,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
